--- a/VersionRecords/Version 5.1.1.1/版本Bug和特性计划及评审表v5.1.1.1.xlsx
+++ b/VersionRecords/Version 5.1.1.1/版本Bug和特性计划及评审表v5.1.1.1.xlsx
@@ -12,15 +12,15 @@
     <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14595"/>
   </bookViews>
   <sheets>
-    <sheet name="版本5.1.1 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
-    <sheet name="配置文件" sheetId="2" r:id="rId2"/>
-    <sheet name="定时器" sheetId="3" r:id="rId3"/>
+    <sheet name="版本5.1.1.1 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
+    <sheet name="定时器" sheetId="3" r:id="rId2"/>
+    <sheet name="配置文件" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.1.1 新特性|Fix Bug'!$A$1:$U$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.1.1.1 新特性|Fix Bug'!$A$1:$U$1</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="166">
   <si>
     <t>No</t>
   </si>
@@ -478,6 +478,200 @@
   <si>
     <t>能</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1.1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>LTS</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>mogo_trade_TaskTracker</t>
+  </si>
+  <si>
+    <t>磐石组</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史房源下架次数扫描</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>王岩</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>王向阳</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.RoomOffInfoTask</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>不用填</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoomOffInfoTask</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.RoomOffInfoTask"}</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时任务</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日05:00:00执行</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>不尝试重复执行，如有错，需开发修复</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>已存在，重新启动即可</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>LTS</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>前一天0点0分0秒截止到当天0点0分0秒房源排序前置数据</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>史欣欣</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭晓春</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>停用</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.RoomScorePreTask</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>不用填</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoomScorePreTask</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.RoomScorePreTask"}</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日02:30执行</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>可重复执行，如有错，需开发修复</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQ组</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>前一天0点0分0秒截止到当天0点0分0秒房源排序前置数据</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>史欣欣</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>停用</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.RoomScorePreTask</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>不用填</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoomScorePreTask</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日02:30执行</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1.1.1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crontab</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>史欣欣</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mogoroom.bs.quartz.RoomScorePreQuartz</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日02:00执行</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>可重复执行，如有错，需开发修复</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crontab</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mogoroom.bs.quartz.RoomScoreQuartz</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日02:00执行</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -962,6 +1156,12 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -973,12 +1173,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -1366,7 +1560,7 @@
   <dimension ref="A1:V167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1748,13 +1942,13 @@
       <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="D7" s="49" t="s">
         <v>76</v>
       </c>
       <c r="E7" s="11" t="s">
@@ -1806,13 +2000,13 @@
       <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="49" t="s">
         <v>87</v>
       </c>
       <c r="E8" s="11" t="s">
@@ -1959,9 +2153,15 @@
       <c r="N10" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="O10" s="18"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="18"/>
+      <c r="O10" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="P10" s="13">
+        <v>42697</v>
+      </c>
+      <c r="Q10" s="18" t="s">
+        <v>99</v>
+      </c>
       <c r="R10" s="16"/>
       <c r="S10" s="16"/>
       <c r="T10" s="16"/>
@@ -5437,148 +5637,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.375" customWidth="1"/>
-    <col min="8" max="8" width="20.375" customWidth="1"/>
-    <col min="13" max="13" width="36.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="49"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="M3" s="30" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-    </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:M2"/>
-  </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F5">
-      <formula1>"新增,修改,删除"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I5">
-      <formula1>"生产环境,测试环境,开发环境"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5586,7 +5648,7 @@
     <col min="1" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.875" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="7.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.125" bestFit="1" customWidth="1"/>
@@ -5658,67 +5720,405 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
+      <c r="A2" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="H2" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="J2" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="K2" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="L2" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="M2" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="N2" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="O2" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="P2" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q2" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="R2" s="46" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="37"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="46"/>
+      <c r="A3" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="I3" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="J3" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="K3" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="L3" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="M3" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="N3" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="O3" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="P3" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q3" s="46" t="s">
+        <v>145</v>
+      </c>
       <c r="R3" s="46"/>
     </row>
     <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="37"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="46"/>
+      <c r="A4" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="I4" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="J4" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="K4" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="L4" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="M4" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="N4" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="O4" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="P4" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q4" s="46" t="s">
+        <v>145</v>
+      </c>
       <c r="R4" s="46"/>
+    </row>
+    <row r="5" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="38"/>
+      <c r="D5" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="F5" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="I5" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="J5" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="K5" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="O5" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="P5" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q5" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="R5" s="46"/>
+    </row>
+    <row r="6" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="38"/>
+      <c r="D6" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="G6" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="I6" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="J6" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="K6" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="O6" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="P6" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q6" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="R6" s="46"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="51"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="53"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+    </row>
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:M2"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F5">
+      <formula1>"新增,修改,删除"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I5">
+      <formula1>"生产环境,测试环境,开发环境"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/VersionRecords/Version 5.1.1.1/版本Bug和特性计划及评审表v5.1.1.1.xlsx
+++ b/VersionRecords/Version 5.1.1.1/版本Bug和特性计划及评审表v5.1.1.1.xlsx
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.1.1.1 新特性|Fix Bug'!$A$1:$U$1</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="167">
   <si>
     <t>No</t>
   </si>
@@ -672,6 +672,10 @@
   <si>
     <t>每日02:00执行</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>签约单账单报表导出和房源惩罚日志定时器内存溢出错误</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1560,7 +1564,7 @@
   <dimension ref="A1:V167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2178,7 +2182,9 @@
       <c r="C11" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="D11" s="10"/>
+      <c r="D11" s="10" t="s">
+        <v>166</v>
+      </c>
       <c r="E11" s="11" t="s">
         <v>110</v>
       </c>

--- a/VersionRecords/Version 5.1.1.1/版本Bug和特性计划及评审表v5.1.1.1.xlsx
+++ b/VersionRecords/Version 5.1.1.1/版本Bug和特性计划及评审表v5.1.1.1.xlsx
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.1.1.1 新特性|Fix Bug'!$A$1:$U$1</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="171">
   <si>
     <t>No</t>
   </si>
@@ -101,21 +101,6 @@
   </si>
   <si>
     <t>重要</t>
-  </si>
-  <si>
-    <t>New Features</t>
-  </si>
-  <si>
-    <t>房东PC</t>
-  </si>
-  <si>
-    <t>马丁组</t>
-  </si>
-  <si>
-    <t>查看空置房源</t>
-  </si>
-  <si>
-    <t>李亚林</t>
   </si>
   <si>
     <t>邵明基</t>
@@ -675,6 +660,42 @@
   </si>
   <si>
     <t>签约单账单报表导出和房源惩罚日志定时器内存溢出错误</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间朝向修改</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FixsBug</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐文瑞</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>马丁组</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>张勋</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -832,7 +853,8 @@
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <charset val="136"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1564,7 +1586,7 @@
   <dimension ref="A1:V167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D5" sqref="D5:Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1658,227 +1680,227 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" s="3" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="H2" s="13">
-        <v>42691</v>
+        <v>42697</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="J2" s="13">
-        <v>42691</v>
+        <v>42697</v>
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="18" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="N2" s="18" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="O2" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="P2" s="13">
         <v>42697</v>
       </c>
       <c r="Q2" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="R2" s="16"/>
+        <v>59</v>
+      </c>
+      <c r="R2" s="16">
+        <v>5250</v>
+      </c>
       <c r="S2" s="16"/>
       <c r="T2" s="16"/>
       <c r="U2" s="21"/>
       <c r="V2" s="22"/>
     </row>
-    <row r="3" spans="1:22" s="3" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:22" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H3" s="13">
         <v>42697</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J3" s="13">
         <v>42697</v>
       </c>
       <c r="K3" s="11"/>
       <c r="L3" s="18" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="N3" s="18" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="O3" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="P3" s="13">
         <v>42697</v>
       </c>
       <c r="Q3" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="R3" s="16">
-        <v>5250</v>
-      </c>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="22"/>
-    </row>
-    <row r="4" spans="1:22" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+      <c r="R3" s="19">
+        <v>5234</v>
+      </c>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="24"/>
+    </row>
+    <row r="4" spans="1:22" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H4" s="13">
         <v>42697</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J4" s="13">
         <v>42697</v>
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="18" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="N4" s="18" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="O4" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="P4" s="13">
         <v>42697</v>
       </c>
       <c r="Q4" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="R4" s="19">
-        <v>5234</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="R4" s="19"/>
       <c r="S4" s="19"/>
       <c r="T4" s="19"/>
       <c r="U4" s="23"/>
       <c r="V4" s="24"/>
     </row>
-    <row r="5" spans="1:22" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:22" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>59</v>
+        <v>162</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>66</v>
+        <v>163</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>60</v>
+        <v>164</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>61</v>
+        <v>165</v>
       </c>
       <c r="H5" s="13">
         <v>42697</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>61</v>
+        <v>166</v>
       </c>
       <c r="J5" s="13">
         <v>42697</v>
       </c>
       <c r="K5" s="11"/>
       <c r="L5" s="18" t="s">
-        <v>62</v>
+        <v>167</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>63</v>
+        <v>168</v>
       </c>
       <c r="N5" s="18" t="s">
-        <v>28</v>
+        <v>169</v>
       </c>
       <c r="O5" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="P5" s="13">
         <v>42697</v>
       </c>
       <c r="Q5" s="18" t="s">
-        <v>73</v>
+        <v>170</v>
       </c>
       <c r="R5" s="19"/>
       <c r="S5" s="19"/>
@@ -1891,50 +1913,50 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H6" s="13">
         <v>42698</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J6" s="13">
         <v>42698</v>
       </c>
       <c r="K6" s="11"/>
       <c r="L6" s="18" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="N6" s="18" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="O6" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="P6" s="13">
         <v>42697</v>
       </c>
       <c r="Q6" s="18" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R6" s="19"/>
       <c r="S6" s="19"/>
@@ -1947,50 +1969,50 @@
         <v>6</v>
       </c>
       <c r="B7" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>74</v>
-      </c>
-      <c r="C7" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>79</v>
       </c>
       <c r="H7" s="13">
         <v>42697</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="J7" s="13">
         <v>42697</v>
       </c>
       <c r="K7" s="11"/>
       <c r="L7" s="18" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="M7" s="18" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="O7" s="18" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="P7" s="13">
         <v>42697</v>
       </c>
       <c r="Q7" s="18" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R7" s="25">
         <v>5309</v>
@@ -2005,50 +2027,50 @@
         <v>7</v>
       </c>
       <c r="B8" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>85</v>
-      </c>
-      <c r="C8" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>90</v>
       </c>
       <c r="H8" s="13">
         <v>42697</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="J8" s="13">
         <v>42697</v>
       </c>
       <c r="K8" s="20"/>
       <c r="L8" s="18" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="M8" s="18" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="O8" s="18" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="P8" s="13">
         <v>42697</v>
       </c>
       <c r="Q8" s="18" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R8" s="16">
         <v>5271</v>
@@ -2066,16 +2088,16 @@
         <v>22</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>19</v>
@@ -2091,22 +2113,22 @@
       </c>
       <c r="K9" s="11"/>
       <c r="L9" s="18" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="N9" s="18" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="O9" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="P9" s="13">
         <v>42697</v>
       </c>
       <c r="Q9" s="18" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R9" s="16">
         <v>5278</v>
@@ -2121,50 +2143,50 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H10" s="13">
         <v>42698</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="J10" s="13">
         <v>42698</v>
       </c>
       <c r="K10" s="11"/>
       <c r="L10" s="18" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="N10" s="18" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="O10" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="P10" s="13">
         <v>42697</v>
       </c>
       <c r="Q10" s="18" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R10" s="16"/>
       <c r="S10" s="16"/>
@@ -2177,50 +2199,50 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H11" s="13">
         <v>42697</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J11" s="13">
         <v>42697</v>
       </c>
       <c r="K11" s="11"/>
       <c r="L11" s="18" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="N11" s="18" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="O11" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="P11" s="13">
         <v>42697</v>
       </c>
       <c r="Q11" s="18" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R11" s="16"/>
       <c r="S11" s="16"/>
@@ -5637,7 +5659,7 @@
   <autoFilter ref="A1:U1"/>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5671,55 +5693,55 @@
   <sheetData>
     <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="I1" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="J1" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="34" t="s">
+      <c r="K1" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="L1" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="M1" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="N1" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="P1" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="Q1" s="34" t="s">
         <v>51</v>
-      </c>
-      <c r="L1" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="M1" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="N1" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="O1" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="P1" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q1" s="34" t="s">
-        <v>56</v>
       </c>
       <c r="R1" s="34" t="s">
         <v>18</v>
@@ -5727,261 +5749,261 @@
     </row>
     <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="G2" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="H2" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="I2" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="J2" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="K2" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="L2" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="M2" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="I2" s="43" t="s">
+      <c r="N2" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="J2" s="44" t="s">
+      <c r="O2" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="K2" s="45" t="s">
+      <c r="P2" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="L2" s="44" t="s">
+      <c r="Q2" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="M2" s="44" t="s">
+      <c r="R2" s="46" t="s">
         <v>129</v>
-      </c>
-      <c r="N2" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="O2" s="46" t="s">
-        <v>131</v>
-      </c>
-      <c r="P2" s="47" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q2" s="46" t="s">
-        <v>133</v>
-      </c>
-      <c r="R2" s="46" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="37" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B3" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="I3" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="J3" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="38" t="s">
+      <c r="K3" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="L3" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="M3" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="H3" s="42" t="s">
+      <c r="N3" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="O3" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="I3" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="J3" s="44" t="s">
+      <c r="P3" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q3" s="46" t="s">
         <v>140</v>
-      </c>
-      <c r="K3" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="L3" s="44" t="s">
-        <v>142</v>
-      </c>
-      <c r="M3" s="44" t="s">
-        <v>143</v>
-      </c>
-      <c r="N3" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="O3" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="P3" s="47" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q3" s="46" t="s">
-        <v>145</v>
       </c>
       <c r="R3" s="46"/>
     </row>
     <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="37" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D4" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="I4" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="J4" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="K4" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="L4" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="M4" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="N4" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="O4" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="G4" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="H4" s="42" t="s">
-        <v>149</v>
-      </c>
-      <c r="I4" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="J4" s="44" t="s">
-        <v>150</v>
-      </c>
-      <c r="K4" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="L4" s="44" t="s">
-        <v>152</v>
-      </c>
-      <c r="M4" s="44" t="s">
-        <v>143</v>
-      </c>
-      <c r="N4" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="O4" s="46" t="s">
-        <v>153</v>
-      </c>
       <c r="P4" s="47" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="Q4" s="46" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="R4" s="46"/>
     </row>
     <row r="5" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="37" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C5" s="38"/>
       <c r="D5" s="39" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G5" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H5" s="42" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="I5" s="43" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="J5" s="44" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="K5" s="38" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="L5" s="44"/>
       <c r="M5" s="44"/>
       <c r="N5" s="44" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="O5" s="46" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="P5" s="47" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="Q5" s="46" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="R5" s="46"/>
     </row>
     <row r="6" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="37" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C6" s="38"/>
       <c r="D6" s="39" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F6" s="40" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G6" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H6" s="42" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="I6" s="43" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="J6" s="44" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="K6" s="38" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="L6" s="44"/>
       <c r="M6" s="44"/>
       <c r="N6" s="44" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="O6" s="46" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="P6" s="47" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="Q6" s="46" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="R6" s="46"/>
     </row>
@@ -6011,7 +6033,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="50" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B1" s="50"/>
       <c r="C1" s="50"/>
@@ -6043,40 +6065,40 @@
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="G3" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="H3" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="I3" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="J3" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="K3" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="L3" s="28" t="s">
         <v>37</v>
-      </c>
-      <c r="H3" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" s="28" t="s">
-        <v>42</v>
       </c>
       <c r="M3" s="30" t="s">
         <v>18</v>
